--- a/upload/condicao-adquirida.xlsx
+++ b/upload/condicao-adquirida.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\x17954399\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m10428324\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19140" windowHeight="6720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Export" sheetId="1" r:id="rId1"/>
@@ -398,8 +398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A477" workbookViewId="0">
-      <selection activeCell="A483" sqref="A483:XFD483"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A482" sqref="A482:XFD483"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3278,10 +3278,10 @@
         <v>70</v>
       </c>
       <c r="E144" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F144" s="3">
-        <v>0.21212121212121213</v>
+        <v>0.21148036253776434</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3295,13 +3295,13 @@
         <v>12</v>
       </c>
       <c r="D145" s="2">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E145" s="2">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="F145" s="3">
-        <v>0.22105263157894736</v>
+        <v>0.22522522522522523</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4178,10 +4178,10 @@
         <v>75</v>
       </c>
       <c r="E189" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F189" s="3">
-        <v>0.11312217194570136</v>
+        <v>0.11329305135951662</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4215,13 +4215,13 @@
         <v>10</v>
       </c>
       <c r="D191" s="2">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="E191" s="2">
-        <v>584</v>
+        <v>663</v>
       </c>
       <c r="F191" s="3">
-        <v>0.1113013698630137</v>
+        <v>0.11161387631975868</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4255,13 +4255,13 @@
         <v>12</v>
       </c>
       <c r="D193" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E193" s="2">
-        <v>1185</v>
+        <v>1189</v>
       </c>
       <c r="F193" s="3">
-        <v>0.12911392405063291</v>
+        <v>0.1295206055508831</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5218,10 +5218,10 @@
         <v>14</v>
       </c>
       <c r="E241" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F241" s="3">
-        <v>0.11666666666666667</v>
+        <v>0.11570247933884298</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -8862,10 +8862,10 @@
         <v>61</v>
       </c>
       <c r="E428" s="2">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="F428" s="3">
-        <v>0.10931899641577061</v>
+        <v>0.10815602836879433</v>
       </c>
     </row>
     <row r="429" spans="1:6">
@@ -8882,10 +8882,10 @@
         <v>71</v>
       </c>
       <c r="E429" s="2">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="F429" s="3">
-        <v>0.13246268656716417</v>
+        <v>0.13075506445672191</v>
       </c>
     </row>
     <row r="430" spans="1:6">
@@ -8902,10 +8902,10 @@
         <v>44</v>
       </c>
       <c r="E430" s="2">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="F430" s="3">
-        <v>8.3809523809523806E-2</v>
+        <v>8.2862523540489647E-2</v>
       </c>
     </row>
     <row r="431" spans="1:6">
@@ -8922,10 +8922,10 @@
         <v>61</v>
       </c>
       <c r="E431" s="2">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="F431" s="3">
-        <v>0.10815602836879433</v>
+        <v>0.10739436619718309</v>
       </c>
     </row>
     <row r="432" spans="1:6">
@@ -8942,10 +8942,10 @@
         <v>61</v>
       </c>
       <c r="E432" s="2">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="F432" s="3">
-        <v>0.11776061776061776</v>
+        <v>0.11708253358925144</v>
       </c>
     </row>
     <row r="433" spans="1:6">
@@ -9919,13 +9919,13 @@
         <v>12</v>
       </c>
       <c r="D481" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E481" s="2">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="F481" s="3">
-        <v>0.24269005847953215</v>
+        <v>0.24454148471615719</v>
       </c>
     </row>
   </sheetData>
